--- a/bread_extraction.xlsx
+++ b/bread_extraction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\R\PhD\breads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C762034-E8F7-4BDC-9071-8C6BACB430DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CAD538-0B4F-41F4-83D5-3DD508C2239A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="25">
   <si>
     <t>10-HCO-H2</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>L</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>frozen rye after oven hole bread</t>
   </si>
 </sst>
 </file>
@@ -231,15 +237,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>111078</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>196803</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -268,7 +274,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3848100" y="0"/>
+          <a:off x="3905250" y="885825"/>
           <a:ext cx="7772400" cy="5102178"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -547,10 +553,13 @@
   <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="30.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -570,6 +579,12 @@
       </c>
       <c r="F1" t="s">
         <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
